--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palos\Documents\TECNICATURA EN DESARROLLO WEB\Intro. a la Programación - Prof. Reynoso\TP FINAL\wordix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9891A5-C273-494E-9D29-E780A6030382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329EA12-EE02-45AD-BEE8-9F0C84142E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9248" yWindow="0" windowWidth="13874" windowHeight="14483" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>Trabajo Práctico Final</t>
   </si>
@@ -231,15 +231,9 @@
     <t xml:space="preserve"> 'palabraWordix</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Para qué se utiliza?: Guarda información detallada sobre una partida jugadas en Wordix, </t>
-  </si>
-  <si>
     <t>$resumen=</t>
   </si>
   <si>
-    <t>$jugador</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'partidas'</t>
   </si>
   <si>
@@ -274,6 +268,15 @@
   </si>
   <si>
     <t xml:space="preserve">Tipos de datos: Enteros </t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional (cada posicion del arreglo indexado es un arreglo asociativo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utiliza?: Guarda información detallada sobre todas las partidas jugadas en Wordix, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Para qué se utiliza?: Guarda información detallada sobre una partida jugada en Wordix, </t>
   </si>
 </sst>
 </file>
@@ -969,17 +972,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1270,14 +1273,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
@@ -1286,11 +1289,11 @@
       <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="52"/>
@@ -1300,11 +1303,11 @@
       <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="52"/>
@@ -1314,11 +1317,11 @@
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="52"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="52"/>
@@ -1328,11 +1331,11 @@
       <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="52"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="52"/>
@@ -1341,11 +1344,11 @@
       <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="52"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="52"/>
@@ -1355,11 +1358,11 @@
       <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="52"/>
       <c r="F8" s="20"/>
     </row>
@@ -1821,297 +1824,320 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A51" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="54" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="29">
+    <row r="55" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="29">
         <v>0</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B55" s="30">
         <v>1</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C55" s="30">
         <v>2</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D55" s="31">
         <v>3</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="U49" s="9"/>
-    </row>
-    <row r="50" spans="1:21" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="36" t="s">
+      <c r="M55" s="9"/>
+      <c r="U55" s="9"/>
+    </row>
+    <row r="56" spans="1:21" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B56" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C56" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D56" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F56" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="33" t="s">
+      <c r="M56" s="9"/>
+      <c r="U56" s="9"/>
+    </row>
+    <row r="57" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B57" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D57" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F57" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="M52" s="9"/>
-      <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="M58" s="9"/>
+      <c r="U58" s="9"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A57" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="38" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="43">
+        <v>0</v>
+      </c>
+      <c r="B68" s="44">
+        <v>1</v>
+      </c>
+      <c r="C68" s="44">
+        <v>2</v>
+      </c>
+      <c r="D68" s="44">
+        <v>3</v>
+      </c>
+      <c r="E68" s="44">
+        <v>4</v>
+      </c>
+      <c r="F68" s="46">
+        <v>5</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="40">
+        <v>1</v>
+      </c>
+      <c r="C69" s="40">
+        <v>10</v>
+      </c>
+      <c r="D69" s="40">
+        <v>1</v>
+      </c>
+      <c r="E69" s="40">
+        <v>0</v>
+      </c>
+      <c r="F69" s="41">
+        <v>0</v>
+      </c>
+      <c r="G69" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="43">
+      <c r="C70" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="44">
+        <v>6</v>
+      </c>
+      <c r="B72" s="44">
+        <v>7</v>
+      </c>
+      <c r="C72" s="44">
+        <v>8</v>
+      </c>
+      <c r="D72" s="45">
+        <v>9</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="40">
         <v>0</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B73" s="40">
+        <v>0</v>
+      </c>
+      <c r="C73" s="40">
+        <v>0</v>
+      </c>
+      <c r="D73" s="42">
         <v>1</v>
       </c>
-      <c r="C62" s="44">
-        <v>2</v>
-      </c>
-      <c r="D62" s="44">
-        <v>3</v>
-      </c>
-      <c r="E62" s="44">
-        <v>4</v>
-      </c>
-      <c r="F62" s="46">
-        <v>5</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="40">
-        <v>0</v>
-      </c>
-      <c r="C63" s="40">
-        <v>0</v>
-      </c>
-      <c r="D63" s="40">
-        <v>0</v>
-      </c>
-      <c r="E63" s="40">
-        <v>0</v>
-      </c>
-      <c r="F63" s="41">
-        <v>0</v>
-      </c>
-      <c r="G63" s="35" t="s">
+      <c r="E73" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A64" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="47" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="B74" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="C74" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="44">
-        <v>6</v>
-      </c>
-      <c r="B66" s="44">
-        <v>7</v>
-      </c>
-      <c r="C66" s="44">
-        <v>8</v>
-      </c>
-      <c r="D66" s="45">
-        <v>9</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="40">
-        <v>0</v>
-      </c>
-      <c r="B67" s="40">
-        <v>0</v>
-      </c>
-      <c r="C67" s="40">
-        <v>0</v>
-      </c>
-      <c r="D67" s="42">
-        <v>0</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="47" t="s">
+    <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="47" t="s">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -2119,6 +2145,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
